--- a/xlsx/汽油_intext.xlsx
+++ b/xlsx/汽油_intext.xlsx
@@ -29,7 +29,7 @@
     <t>瓦斯</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_汽油</t>
+    <t>政策_政策_混合动力车辆_汽油</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9</t>
@@ -89,13 +89,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E4%B9%99%E5%9F%BA%E9%89%9B</t>
   </si>
   <si>
-    <t>四乙基鉛</t>
+    <t>四乙基铅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%B8%E5%AA%92%E8%BD%89%E5%8C%96%E5%99%A8</t>
   </si>
   <si>
-    <t>觸媒轉化器</t>
+    <t>触媒转化器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E6%B1%BD%E6%B2%B9</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>阿爾及利亞</t>
+    <t>阿尔及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
@@ -131,37 +131,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8</t>
   </si>
   <si>
-    <t>緬甸</t>
+    <t>缅甸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80</t>
   </si>
   <si>
-    <t>葉門</t>
+    <t>叶门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%85%89%E6%B2%B9%E5%BB%A0</t>
   </si>
   <si>
-    <t>煉油廠</t>
+    <t>炼油厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%B2%E8%8D%89%E6%A9%9F</t>
   </si>
   <si>
-    <t>割草機</t>
+    <t>割草机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8F%88%E9%8B%B8</t>
   </si>
   <si>
-    <t>鏈鋸</t>
+    <t>链锯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%86%E9%9C%87</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E5%B9%A3</t>
   </si>
   <si>
-    <t>人民幣</t>
+    <t>人民币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E8%B3%AA%E6%9F%B4%E6%B2%B9</t>
   </si>
   <si>
-    <t>生質柴油</t>
+    <t>生质柴油</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%85%A4%E6%B2%B9</t>
@@ -389,13 +389,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A3%93%E7%B8%AE%E5%A4%A9%E7%84%B6%E6%B0%A3</t>
   </si>
   <si>
-    <t>壓縮天然氣</t>
+    <t>压缩天然气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%AB</t>
   </si>
   <si>
-    <t>氫</t>
+    <t>氢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%99%E9%86%87</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/2,6-%E4%BA%8C%E5%8F%94%E4%B8%81%E5%9F%BA%E5%B0%8D%E7%94%B2%E9%85%9A</t>
   </si>
   <si>
-    <t>2,6-二叔丁基對甲酚</t>
+    <t>2,6-二叔丁基对甲酚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1,2-%E4%BA%8C%E6%BA%B4%E4%B9%99%E7%83%B7</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -485,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
